--- a/GTD_US_06_16.xlsx
+++ b/GTD_US_06_16.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkretsch/Downloads/GTD_0617dist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkretsch/Desktop/RRT/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="3580" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="1180" yWindow="980" windowWidth="24120" windowHeight="26900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
+  <customWorkbookViews>
+    <customWorkbookView name="h" guid="{3993AB42-4A72-8243-A2A8-DB9FAE07C03D}" windowWidth="1610" windowHeight="1134" tabRatio="500" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5343" uniqueCount="2047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5357" uniqueCount="2053">
   <si>
     <t>United States</t>
   </si>
@@ -6168,13 +6171,31 @@
   </si>
   <si>
     <t>"Source: Man held after blast outside Social Security building in Arizona," CNN Wire, November 30, 2012.</t>
+  </si>
+  <si>
+    <t>check next day trending topics</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>same2</t>
+  </si>
+  <si>
+    <t>same3</t>
+  </si>
+  <si>
+    <t>same4</t>
+  </si>
+  <si>
+    <t>same5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6185,6 +6206,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6215,7 +6244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6228,6 +6257,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6505,10 +6535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EE236"/>
+  <dimension ref="A1:EG236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CU101" sqref="CU101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17310,7 +17341,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="49" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>201502100004</v>
       </c>
@@ -17531,7 +17562,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="50" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>201502170127</v>
       </c>
@@ -17738,7 +17769,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="51" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>201502180067</v>
       </c>
@@ -17964,7 +17995,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="52" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>201502230104</v>
       </c>
@@ -18178,9 +18209,12 @@
       <c r="ED52">
         <v>-9</v>
       </c>
+      <c r="EF52" t="s">
+        <v>2047</v>
+      </c>
     </row>
-    <row r="53" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="53" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
         <v>201503100045</v>
       </c>
       <c r="B53">
@@ -18390,9 +18424,12 @@
       <c r="ED53">
         <v>1</v>
       </c>
+      <c r="EF53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="54" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
         <v>201503200036</v>
       </c>
       <c r="B54">
@@ -18620,9 +18657,12 @@
       <c r="ED54">
         <v>-9</v>
       </c>
+      <c r="EF54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="55" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
         <v>201505030003</v>
       </c>
       <c r="B55">
@@ -18833,9 +18873,12 @@
       <c r="ED55">
         <v>-9</v>
       </c>
+      <c r="EF55">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="56" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
         <v>201506170035</v>
       </c>
       <c r="B56">
@@ -19046,9 +19089,12 @@
       <c r="ED56">
         <v>-9</v>
       </c>
+      <c r="EF56">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="57" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
         <v>201506220069</v>
       </c>
       <c r="B57">
@@ -19267,9 +19313,15 @@
       <c r="ED57">
         <v>-9</v>
       </c>
+      <c r="EF57">
+        <v>0</v>
+      </c>
+      <c r="EG57" t="s">
+        <v>2048</v>
+      </c>
     </row>
-    <row r="58" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+    <row r="58" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
         <v>201506230056</v>
       </c>
       <c r="B58">
@@ -19477,9 +19529,15 @@
       <c r="ED58">
         <v>-9</v>
       </c>
+      <c r="EF58">
+        <v>0</v>
+      </c>
+      <c r="EG58" t="s">
+        <v>2048</v>
+      </c>
     </row>
-    <row r="59" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+    <row r="59" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
         <v>201506240051</v>
       </c>
       <c r="B59">
@@ -19687,9 +19745,15 @@
       <c r="ED59">
         <v>-9</v>
       </c>
+      <c r="EF59">
+        <v>0</v>
+      </c>
+      <c r="EG59" t="s">
+        <v>2048</v>
+      </c>
     </row>
-    <row r="60" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+    <row r="60" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
         <v>201506260046</v>
       </c>
       <c r="B60">
@@ -19905,9 +19969,15 @@
       <c r="ED60">
         <v>-9</v>
       </c>
+      <c r="EF60">
+        <v>0</v>
+      </c>
+      <c r="EG60" t="s">
+        <v>2048</v>
+      </c>
     </row>
-    <row r="61" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="61" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
         <v>201507150077</v>
       </c>
       <c r="B61">
@@ -20109,9 +20179,15 @@
       <c r="ED61">
         <v>-9</v>
       </c>
+      <c r="EF61">
+        <v>0</v>
+      </c>
+      <c r="EG61" t="s">
+        <v>2048</v>
+      </c>
     </row>
-    <row r="62" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+    <row r="62" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
         <v>201507160061</v>
       </c>
       <c r="B62">
@@ -20345,9 +20421,15 @@
       <c r="EE62" s="2" t="s">
         <v>593</v>
       </c>
+      <c r="EF62">
+        <v>0</v>
+      </c>
+      <c r="EG62" t="s">
+        <v>2049</v>
+      </c>
     </row>
-    <row r="63" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+    <row r="63" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
         <v>201507160062</v>
       </c>
       <c r="B63">
@@ -20573,9 +20655,15 @@
       <c r="EE63" s="2" t="s">
         <v>597</v>
       </c>
+      <c r="EF63">
+        <v>0</v>
+      </c>
+      <c r="EG63" t="s">
+        <v>2049</v>
+      </c>
     </row>
-    <row r="64" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+    <row r="64" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
         <v>201507190097</v>
       </c>
       <c r="B64">
@@ -20769,9 +20857,12 @@
       <c r="ED64">
         <v>-9</v>
       </c>
+      <c r="EF64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="65" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
         <v>201507230080</v>
       </c>
       <c r="B65">
@@ -20985,9 +21076,12 @@
       <c r="ED65">
         <v>-9</v>
       </c>
+      <c r="EF65">
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+    <row r="66" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
         <v>201508010105</v>
       </c>
       <c r="B66">
@@ -21195,9 +21289,12 @@
       <c r="ED66">
         <v>-9</v>
       </c>
+      <c r="EF66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="67" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
         <v>201508020114</v>
       </c>
       <c r="B67">
@@ -21408,9 +21505,15 @@
       <c r="EE67" s="2" t="s">
         <v>627</v>
       </c>
+      <c r="EF67">
+        <v>0</v>
+      </c>
+      <c r="EG67" t="s">
+        <v>2050</v>
+      </c>
     </row>
-    <row r="68" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+    <row r="68" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
         <v>201508020115</v>
       </c>
       <c r="B68">
@@ -21621,9 +21724,15 @@
       <c r="EE68" s="2" t="s">
         <v>631</v>
       </c>
+      <c r="EF68">
+        <v>0</v>
+      </c>
+      <c r="EG68" t="s">
+        <v>2050</v>
+      </c>
     </row>
-    <row r="69" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+    <row r="69" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
         <v>201508140093</v>
       </c>
       <c r="B69">
@@ -21820,9 +21929,12 @@
       <c r="ED69">
         <v>-9</v>
       </c>
+      <c r="EF69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+    <row r="70" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
         <v>201509040048</v>
       </c>
       <c r="B70">
@@ -22033,9 +22145,12 @@
       <c r="ED70">
         <v>-9</v>
       </c>
+      <c r="EF70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+    <row r="71" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
         <v>201509130079</v>
       </c>
       <c r="B71">
@@ -22237,9 +22352,12 @@
       <c r="ED71">
         <v>-9</v>
       </c>
+      <c r="EF71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="72" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
         <v>201509300082</v>
       </c>
       <c r="B72">
@@ -22453,9 +22571,12 @@
       <c r="ED72">
         <v>-9</v>
       </c>
+      <c r="EF72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="73" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
         <v>201511010076</v>
       </c>
       <c r="B73">
@@ -22669,9 +22790,12 @@
       <c r="ED73">
         <v>-9</v>
       </c>
+      <c r="EF73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="74" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
         <v>201511040056</v>
       </c>
       <c r="B74">
@@ -22876,9 +23000,12 @@
       <c r="ED74">
         <v>-9</v>
       </c>
+      <c r="EF74">
+        <v>1</v>
+      </c>
     </row>
-    <row r="75" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+    <row r="75" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
         <v>201511060053</v>
       </c>
       <c r="B75">
@@ -23086,9 +23213,12 @@
       <c r="ED75">
         <v>-9</v>
       </c>
+      <c r="EF75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+    <row r="76" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
         <v>201511150043</v>
       </c>
       <c r="B76">
@@ -23320,9 +23450,12 @@
       <c r="ED76">
         <v>-9</v>
       </c>
+      <c r="EF76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+    <row r="77" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
         <v>201511190054</v>
       </c>
       <c r="B77">
@@ -23538,9 +23671,12 @@
       <c r="ED77">
         <v>-9</v>
       </c>
+      <c r="EF77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+    <row r="78" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
         <v>201511230084</v>
       </c>
       <c r="B78">
@@ -23752,9 +23888,12 @@
       <c r="ED78">
         <v>0</v>
       </c>
+      <c r="EF78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+    <row r="79" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
         <v>201511270001</v>
       </c>
       <c r="B79">
@@ -23987,9 +24126,12 @@
       <c r="ED79">
         <v>-9</v>
       </c>
+      <c r="EF79">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+    <row r="80" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
         <v>201512020012</v>
       </c>
       <c r="B80">
@@ -24207,9 +24349,12 @@
       <c r="ED80">
         <v>-9</v>
       </c>
+      <c r="EF80">
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+    <row r="81" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
         <v>201512050031</v>
       </c>
       <c r="B81">
@@ -24415,9 +24560,12 @@
       <c r="ED81">
         <v>-9</v>
       </c>
+      <c r="EF81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+    <row r="82" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
         <v>201512080038</v>
       </c>
       <c r="B82">
@@ -24631,9 +24779,12 @@
       <c r="ED82">
         <v>-9</v>
       </c>
+      <c r="EF82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+    <row r="83" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
         <v>201512110031</v>
       </c>
       <c r="B83">
@@ -24844,9 +24995,15 @@
       <c r="ED83">
         <v>-9</v>
       </c>
+      <c r="EF83">
+        <v>0</v>
+      </c>
+      <c r="EG83" t="s">
+        <v>2051</v>
+      </c>
     </row>
-    <row r="84" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+    <row r="84" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
         <v>201512260016</v>
       </c>
       <c r="B84">
@@ -25057,9 +25214,15 @@
       <c r="ED84">
         <v>-9</v>
       </c>
+      <c r="EF84">
+        <v>0</v>
+      </c>
+      <c r="EG84" t="s">
+        <v>2051</v>
+      </c>
     </row>
-    <row r="85" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+    <row r="85" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
         <v>201512300045</v>
       </c>
       <c r="B85">
@@ -25275,9 +25438,15 @@
       <c r="ED85">
         <v>-9</v>
       </c>
+      <c r="EF85">
+        <v>0</v>
+      </c>
+      <c r="EG85" t="s">
+        <v>2052</v>
+      </c>
     </row>
-    <row r="86" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+    <row r="86" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
         <v>201512310048</v>
       </c>
       <c r="B86">
@@ -25493,9 +25662,15 @@
       <c r="ED86">
         <v>-9</v>
       </c>
+      <c r="EF86">
+        <v>0</v>
+      </c>
+      <c r="EG86" t="s">
+        <v>2052</v>
+      </c>
     </row>
-    <row r="87" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+    <row r="87" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
         <v>201601020043</v>
       </c>
       <c r="B87">
@@ -25724,8 +25899,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+    <row r="88" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
         <v>201601070024</v>
       </c>
       <c r="B88">
@@ -25948,8 +26123,8 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="89" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+    <row r="89" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
         <v>201601150040</v>
       </c>
       <c r="B89">
@@ -26150,8 +26325,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+    <row r="90" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
         <v>201602110023</v>
       </c>
       <c r="B90">
@@ -26355,8 +26530,8 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="91" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+    <row r="91" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
         <v>201602180063</v>
       </c>
       <c r="B91">
@@ -26567,8 +26742,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+    <row r="92" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
         <v>201602280069</v>
       </c>
       <c r="B92">
@@ -26785,8 +26960,8 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="93" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+    <row r="93" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
         <v>201603300069</v>
       </c>
       <c r="B93">
@@ -27009,8 +27184,8 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="94" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+    <row r="94" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
         <v>201604210055</v>
       </c>
       <c r="B94">
@@ -27213,8 +27388,8 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="95" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+    <row r="95" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
         <v>201604260043</v>
       </c>
       <c r="B95">
@@ -27420,8 +27595,8 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="96" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+    <row r="96" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
         <v>201605250055</v>
       </c>
       <c r="B96">
@@ -27628,7 +27803,7 @@
       </c>
     </row>
     <row r="97" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+      <c r="A97" s="6">
         <v>201605250061</v>
       </c>
       <c r="B97">
@@ -27835,7 +28010,7 @@
       </c>
     </row>
     <row r="98" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+      <c r="A98" s="6">
         <v>201605260052</v>
       </c>
       <c r="B98">
@@ -28045,7 +28220,7 @@
       </c>
     </row>
     <row r="99" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+      <c r="A99" s="6">
         <v>201606050082</v>
       </c>
       <c r="B99">
@@ -28261,7 +28436,7 @@
       </c>
     </row>
     <row r="100" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+      <c r="A100" s="6">
         <v>201606090034</v>
       </c>
       <c r="B100">
@@ -28477,7 +28652,7 @@
       </c>
     </row>
     <row r="101" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+      <c r="A101" s="6">
         <v>201606120001</v>
       </c>
       <c r="B101">
@@ -28757,7 +28932,7 @@
       </c>
     </row>
     <row r="102" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+      <c r="A102" s="6">
         <v>201606180037</v>
       </c>
       <c r="B102">
@@ -28967,7 +29142,7 @@
       </c>
     </row>
     <row r="103" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+      <c r="A103" s="6">
         <v>201607040048</v>
       </c>
       <c r="B103">
@@ -29174,7 +29349,7 @@
       </c>
     </row>
     <row r="104" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+      <c r="A104" s="6">
         <v>201607050044</v>
       </c>
       <c r="B104">
@@ -29381,7 +29556,7 @@
       </c>
     </row>
     <row r="105" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+      <c r="A105" s="6">
         <v>201607070001</v>
       </c>
       <c r="B105">
@@ -29615,7 +29790,7 @@
       </c>
     </row>
     <row r="106" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+      <c r="A106" s="6">
         <v>201607070016</v>
       </c>
       <c r="B106">
@@ -29867,7 +30042,7 @@
       </c>
     </row>
     <row r="107" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+      <c r="A107" s="6">
         <v>201607070018</v>
       </c>
       <c r="B107">
@@ -30080,7 +30255,7 @@
       </c>
     </row>
     <row r="108" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+      <c r="A108" s="6">
         <v>201607090022</v>
       </c>
       <c r="B108">
@@ -30298,7 +30473,7 @@
       </c>
     </row>
     <row r="109" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+      <c r="A109" s="6">
         <v>201607170005</v>
       </c>
       <c r="B109">
@@ -30516,7 +30691,7 @@
       </c>
     </row>
     <row r="110" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+      <c r="A110" s="6">
         <v>201607170022</v>
       </c>
       <c r="B110">
@@ -30737,7 +30912,7 @@
       </c>
     </row>
     <row r="111" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+      <c r="A111" s="6">
         <v>201607180070</v>
       </c>
       <c r="B111">
@@ -30952,7 +31127,7 @@
       </c>
     </row>
     <row r="112" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+      <c r="A112" s="6">
         <v>201607250048</v>
       </c>
       <c r="B112">
@@ -31159,7 +31334,7 @@
       </c>
     </row>
     <row r="113" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+      <c r="A113" s="6">
         <v>201607250049</v>
       </c>
       <c r="B113">
@@ -31366,7 +31541,7 @@
       </c>
     </row>
     <row r="114" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+      <c r="A114" s="6">
         <v>201607270058</v>
       </c>
       <c r="B114">
@@ -31570,7 +31745,7 @@
       </c>
     </row>
     <row r="115" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+      <c r="A115" s="6">
         <v>201607310050</v>
       </c>
       <c r="B115">
@@ -31786,7 +31961,7 @@
       </c>
     </row>
     <row r="116" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+      <c r="A116" s="6">
         <v>201608010027</v>
       </c>
       <c r="B116">
@@ -32005,7 +32180,7 @@
       </c>
     </row>
     <row r="117" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+      <c r="A117" s="6">
         <v>201608010028</v>
       </c>
       <c r="B117">
@@ -32224,7 +32399,7 @@
       </c>
     </row>
     <row r="118" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+      <c r="A118" s="6">
         <v>201608040052</v>
       </c>
       <c r="B118">
@@ -32445,7 +32620,7 @@
       </c>
     </row>
     <row r="119" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
+      <c r="A119" s="6">
         <v>201608050054</v>
       </c>
       <c r="B119">
@@ -32664,7 +32839,7 @@
       </c>
     </row>
     <row r="120" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+      <c r="A120" s="6">
         <v>201608090043</v>
       </c>
       <c r="B120">
@@ -32883,7 +33058,7 @@
       </c>
     </row>
     <row r="121" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+      <c r="A121" s="6">
         <v>201608090044</v>
       </c>
       <c r="B121">
@@ -33091,7 +33266,7 @@
       </c>
     </row>
     <row r="122" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
+      <c r="A122" s="6">
         <v>201608100099</v>
       </c>
       <c r="B122">
@@ -33315,7 +33490,7 @@
       </c>
     </row>
     <row r="123" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
+      <c r="A123" s="6">
         <v>201608130021</v>
       </c>
       <c r="B123">
@@ -33546,7 +33721,7 @@
       </c>
     </row>
     <row r="124" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+      <c r="A124" s="6">
         <v>201608200042</v>
       </c>
       <c r="B124">
@@ -33759,7 +33934,7 @@
       </c>
     </row>
     <row r="125" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
+      <c r="A125" s="6">
         <v>201608230025</v>
       </c>
       <c r="B125">
@@ -33972,7 +34147,7 @@
       </c>
     </row>
     <row r="126" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
+      <c r="A126" s="6">
         <v>201609020055</v>
       </c>
       <c r="B126">
@@ -34179,7 +34354,7 @@
       </c>
     </row>
     <row r="127" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+      <c r="A127" s="6">
         <v>201609120001</v>
       </c>
       <c r="B127">
@@ -34397,7 +34572,7 @@
       </c>
     </row>
     <row r="128" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
+      <c r="A128" s="6">
         <v>201609160002</v>
       </c>
       <c r="B128">
@@ -34668,7 +34843,7 @@
       </c>
     </row>
     <row r="129" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
+      <c r="A129" s="6">
         <v>201609170001</v>
       </c>
       <c r="B129">
@@ -34892,7 +35067,7 @@
       </c>
     </row>
     <row r="130" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
+      <c r="A130" s="6">
         <v>201609170002</v>
       </c>
       <c r="B130">
@@ -35122,7 +35297,7 @@
       </c>
     </row>
     <row r="131" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
+      <c r="A131" s="6">
         <v>201609170003</v>
       </c>
       <c r="B131">
@@ -35338,7 +35513,7 @@
       </c>
     </row>
     <row r="132" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
+      <c r="A132" s="6">
         <v>201609170004</v>
       </c>
       <c r="B132">
@@ -35546,7 +35721,7 @@
       </c>
     </row>
     <row r="133" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
+      <c r="A133" s="6">
         <v>201609180001</v>
       </c>
       <c r="B133">
@@ -35770,7 +35945,7 @@
       </c>
     </row>
     <row r="134" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
+      <c r="A134" s="6">
         <v>201609240025</v>
       </c>
       <c r="B134">
@@ -35980,7 +36155,7 @@
       </c>
     </row>
     <row r="135" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
+      <c r="A135" s="6">
         <v>201610030040</v>
       </c>
       <c r="B135">
@@ -36196,7 +36371,7 @@
       </c>
     </row>
     <row r="136" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
+      <c r="A136" s="6">
         <v>201610030060</v>
       </c>
       <c r="B136">
@@ -36409,7 +36584,7 @@
       </c>
     </row>
     <row r="137" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
+      <c r="A137" s="6">
         <v>201610040058</v>
       </c>
       <c r="B137">
@@ -36627,7 +36802,7 @@
       </c>
     </row>
     <row r="138" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
+      <c r="A138" s="6">
         <v>201610090043</v>
       </c>
       <c r="B138">
@@ -36834,7 +37009,7 @@
       </c>
     </row>
     <row r="139" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
+      <c r="A139" s="6">
         <v>201610130052</v>
       </c>
       <c r="B139">
@@ -37052,7 +37227,7 @@
       </c>
     </row>
     <row r="140" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
+      <c r="A140" s="6">
         <v>201610150013</v>
       </c>
       <c r="B140">
@@ -37265,7 +37440,7 @@
       </c>
     </row>
     <row r="141" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
+      <c r="A141" s="6">
         <v>201610160022</v>
       </c>
       <c r="B141">
@@ -37481,7 +37656,7 @@
       </c>
     </row>
     <row r="142" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
+      <c r="A142" s="6">
         <v>201611230062</v>
       </c>
       <c r="B142">
@@ -37688,7 +37863,7 @@
       </c>
     </row>
     <row r="143" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
+      <c r="A143" s="6">
         <v>201611250026</v>
       </c>
       <c r="B143">
@@ -37892,7 +38067,7 @@
       </c>
     </row>
     <row r="144" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
+      <c r="A144" s="6">
         <v>201611280001</v>
       </c>
       <c r="B144">
@@ -38107,7 +38282,7 @@
       </c>
     </row>
     <row r="145" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
+      <c r="A145" s="6">
         <v>201612040047</v>
       </c>
       <c r="B145">
@@ -38338,7 +38513,7 @@
       </c>
     </row>
     <row r="146" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
+      <c r="A146" s="6">
         <v>201612080038</v>
       </c>
       <c r="B146">
@@ -38542,7 +38717,7 @@
       </c>
     </row>
     <row r="147" spans="1:134" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
+      <c r="A147" s="6">
         <v>201612150044</v>
       </c>
       <c r="B147">
@@ -57921,6 +58096,13 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{3993AB42-4A72-8243-A2A8-DB9FAE07C03D}">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GTD_US_06_16.xlsx
+++ b/GTD_US_06_16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="980" windowWidth="24120" windowHeight="26900" tabRatio="500"/>
+    <workbookView xWindow="22400" yWindow="460" windowWidth="28800" windowHeight="26900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5357" uniqueCount="2053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5381" uniqueCount="2064">
   <si>
     <t>United States</t>
   </si>
@@ -6189,6 +6189,39 @@
   </si>
   <si>
     <t>same5</t>
+  </si>
+  <si>
+    <t>no dta</t>
+  </si>
+  <si>
+    <t>same6</t>
+  </si>
+  <si>
+    <t>same7</t>
+  </si>
+  <si>
+    <t>same8</t>
+  </si>
+  <si>
+    <t>same9</t>
+  </si>
+  <si>
+    <t>same 9</t>
+  </si>
+  <si>
+    <t>same10</t>
+  </si>
+  <si>
+    <t>same 11</t>
+  </si>
+  <si>
+    <t>same 12</t>
+  </si>
+  <si>
+    <t>same 13</t>
+  </si>
+  <si>
+    <t>same 14</t>
   </si>
 </sst>
 </file>
@@ -6537,9 +6570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EG236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CU101" sqref="CU101"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="EF147" sqref="EF147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25898,6 +25931,9 @@
       <c r="ED87">
         <v>0</v>
       </c>
+      <c r="EF87" t="s">
+        <v>2053</v>
+      </c>
     </row>
     <row r="88" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
@@ -26122,6 +26158,9 @@
       <c r="ED88">
         <v>-9</v>
       </c>
+      <c r="EF88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
@@ -26324,6 +26363,9 @@
       <c r="ED89">
         <v>1</v>
       </c>
+      <c r="EF89">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
@@ -26529,6 +26571,9 @@
       <c r="ED90">
         <v>-9</v>
       </c>
+      <c r="EF90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
@@ -26741,6 +26786,9 @@
       <c r="ED91">
         <v>1</v>
       </c>
+      <c r="EF91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
@@ -26959,6 +27007,9 @@
       <c r="ED92">
         <v>-9</v>
       </c>
+      <c r="EF92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
@@ -27183,6 +27234,9 @@
       <c r="ED93">
         <v>-9</v>
       </c>
+      <c r="EF93">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
@@ -27387,6 +27441,9 @@
       <c r="ED94">
         <v>-9</v>
       </c>
+      <c r="EF94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
@@ -27594,6 +27651,9 @@
       <c r="ED95">
         <v>-9</v>
       </c>
+      <c r="EF95">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
@@ -27801,8 +27861,11 @@
       <c r="ED96">
         <v>-9</v>
       </c>
+      <c r="EF96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>201605250061</v>
       </c>
@@ -28008,8 +28071,11 @@
       <c r="ED97">
         <v>-9</v>
       </c>
+      <c r="EF97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>201605260052</v>
       </c>
@@ -28218,8 +28284,11 @@
       <c r="ED98">
         <v>-9</v>
       </c>
+      <c r="EF98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>201606050082</v>
       </c>
@@ -28434,8 +28503,14 @@
       <c r="ED99">
         <v>-9</v>
       </c>
+      <c r="EF99">
+        <v>0</v>
+      </c>
+      <c r="EG99" t="s">
+        <v>2054</v>
+      </c>
     </row>
-    <row r="100" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>201606090034</v>
       </c>
@@ -28650,8 +28725,14 @@
       <c r="ED100">
         <v>-9</v>
       </c>
+      <c r="EF100">
+        <v>0</v>
+      </c>
+      <c r="EG100" t="s">
+        <v>2054</v>
+      </c>
     </row>
-    <row r="101" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>201606120001</v>
       </c>
@@ -28930,8 +29011,11 @@
       <c r="ED101">
         <v>1</v>
       </c>
+      <c r="EF101">
+        <v>1</v>
+      </c>
     </row>
-    <row r="102" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>201606180037</v>
       </c>
@@ -29140,8 +29224,11 @@
       <c r="ED102">
         <v>-9</v>
       </c>
+      <c r="EF102">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>201607040048</v>
       </c>
@@ -29347,8 +29434,14 @@
       <c r="ED103">
         <v>-9</v>
       </c>
+      <c r="EF103">
+        <v>0</v>
+      </c>
+      <c r="EG103" t="s">
+        <v>2055</v>
+      </c>
     </row>
-    <row r="104" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>201607050044</v>
       </c>
@@ -29554,8 +29647,14 @@
       <c r="ED104">
         <v>-9</v>
       </c>
+      <c r="EF104">
+        <v>0</v>
+      </c>
+      <c r="EG104" t="s">
+        <v>2055</v>
+      </c>
     </row>
-    <row r="105" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>201607070001</v>
       </c>
@@ -29788,8 +29887,11 @@
       <c r="ED105">
         <v>-9</v>
       </c>
+      <c r="EF105">
+        <v>1</v>
+      </c>
     </row>
-    <row r="106" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>201607070016</v>
       </c>
@@ -30040,8 +30142,11 @@
       <c r="ED106">
         <v>-9</v>
       </c>
+      <c r="EF106">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>201607070018</v>
       </c>
@@ -30253,8 +30358,11 @@
       <c r="ED107">
         <v>-9</v>
       </c>
+      <c r="EF107">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>201607090022</v>
       </c>
@@ -30471,8 +30579,11 @@
       <c r="ED108">
         <v>-9</v>
       </c>
+      <c r="EF108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>201607170005</v>
       </c>
@@ -30689,8 +30800,11 @@
       <c r="ED109">
         <v>-9</v>
       </c>
+      <c r="EF109">
+        <v>1</v>
+      </c>
     </row>
-    <row r="110" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>201607170022</v>
       </c>
@@ -30910,8 +31024,11 @@
       <c r="ED110">
         <v>-9</v>
       </c>
+      <c r="EF110">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>201607180070</v>
       </c>
@@ -31125,8 +31242,14 @@
       <c r="ED111">
         <v>-9</v>
       </c>
+      <c r="EF111">
+        <v>0</v>
+      </c>
+      <c r="EG111" t="s">
+        <v>2058</v>
+      </c>
     </row>
-    <row r="112" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>201607250048</v>
       </c>
@@ -31332,8 +31455,14 @@
       <c r="EE112" s="2" t="s">
         <v>966</v>
       </c>
+      <c r="EF112">
+        <v>0</v>
+      </c>
+      <c r="EG112" t="s">
+        <v>2056</v>
+      </c>
     </row>
-    <row r="113" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>201607250049</v>
       </c>
@@ -31539,8 +31668,14 @@
       <c r="EE113" s="2" t="s">
         <v>966</v>
       </c>
+      <c r="EF113">
+        <v>0</v>
+      </c>
+      <c r="EG113" t="s">
+        <v>2056</v>
+      </c>
     </row>
-    <row r="114" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>201607270058</v>
       </c>
@@ -31743,8 +31878,14 @@
       <c r="ED114">
         <v>-9</v>
       </c>
+      <c r="EF114">
+        <v>0</v>
+      </c>
+      <c r="EG114" t="s">
+        <v>2057</v>
+      </c>
     </row>
-    <row r="115" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>201607310050</v>
       </c>
@@ -31959,8 +32100,14 @@
       <c r="EE115" s="2" t="s">
         <v>983</v>
       </c>
+      <c r="EF115">
+        <v>0</v>
+      </c>
+      <c r="EG115" t="s">
+        <v>2059</v>
+      </c>
     </row>
-    <row r="116" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>201608010027</v>
       </c>
@@ -32178,8 +32325,14 @@
       <c r="EE116" s="2" t="s">
         <v>983</v>
       </c>
+      <c r="EF116">
+        <v>0</v>
+      </c>
+      <c r="EG116" t="s">
+        <v>2059</v>
+      </c>
     </row>
-    <row r="117" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>201608010028</v>
       </c>
@@ -32397,8 +32550,14 @@
       <c r="EE117" s="2" t="s">
         <v>983</v>
       </c>
+      <c r="EF117">
+        <v>0</v>
+      </c>
+      <c r="EG117" t="s">
+        <v>2059</v>
+      </c>
     </row>
-    <row r="118" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>201608040052</v>
       </c>
@@ -32618,8 +32777,14 @@
       <c r="EE118" s="2" t="s">
         <v>997</v>
       </c>
+      <c r="EF118">
+        <v>0</v>
+      </c>
+      <c r="EG118" t="s">
+        <v>2058</v>
+      </c>
     </row>
-    <row r="119" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>201608050054</v>
       </c>
@@ -32837,8 +33002,14 @@
       <c r="EE119" s="2" t="s">
         <v>997</v>
       </c>
+      <c r="EF119">
+        <v>0</v>
+      </c>
+      <c r="EG119" t="s">
+        <v>2058</v>
+      </c>
     </row>
-    <row r="120" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>201608090043</v>
       </c>
@@ -33056,8 +33227,14 @@
       <c r="EE120" s="2" t="s">
         <v>1012</v>
       </c>
+      <c r="EF120">
+        <v>0</v>
+      </c>
+      <c r="EG120" t="s">
+        <v>2060</v>
+      </c>
     </row>
-    <row r="121" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>201608090044</v>
       </c>
@@ -33264,8 +33441,14 @@
       <c r="EE121" s="2" t="s">
         <v>1012</v>
       </c>
+      <c r="EF121">
+        <v>0</v>
+      </c>
+      <c r="EG121" t="s">
+        <v>2060</v>
+      </c>
     </row>
-    <row r="122" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>201608100099</v>
       </c>
@@ -33488,8 +33671,11 @@
       <c r="ED122">
         <v>-9</v>
       </c>
+      <c r="EF122">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>201608130021</v>
       </c>
@@ -33719,8 +33905,11 @@
       <c r="ED123">
         <v>-9</v>
       </c>
+      <c r="EF123">
+        <v>0</v>
+      </c>
     </row>
-    <row r="124" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>201608200042</v>
       </c>
@@ -33932,8 +34121,11 @@
       <c r="ED124">
         <v>-9</v>
       </c>
+      <c r="EF124">
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>201608230025</v>
       </c>
@@ -34145,8 +34337,11 @@
       <c r="ED125">
         <v>-9</v>
       </c>
+      <c r="EF125">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>201609020055</v>
       </c>
@@ -34352,8 +34547,11 @@
       <c r="ED126">
         <v>-9</v>
       </c>
+      <c r="EF126">
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>201609120001</v>
       </c>
@@ -34570,8 +34768,11 @@
       <c r="ED127">
         <v>-9</v>
       </c>
+      <c r="EF127">
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>201609160002</v>
       </c>
@@ -34841,8 +35042,11 @@
       <c r="ED128">
         <v>-9</v>
       </c>
+      <c r="EF128">
+        <v>1</v>
+      </c>
     </row>
-    <row r="129" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>201609170001</v>
       </c>
@@ -35065,8 +35269,14 @@
       <c r="EE129" s="2" t="s">
         <v>1080</v>
       </c>
+      <c r="EF129">
+        <v>1</v>
+      </c>
+      <c r="EG129" t="s">
+        <v>2061</v>
+      </c>
     </row>
-    <row r="130" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>201609170002</v>
       </c>
@@ -35295,8 +35505,14 @@
       <c r="EE130" s="2" t="s">
         <v>1080</v>
       </c>
+      <c r="EF130">
+        <v>1</v>
+      </c>
+      <c r="EG130" t="s">
+        <v>2061</v>
+      </c>
     </row>
-    <row r="131" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>201609170003</v>
       </c>
@@ -35511,8 +35727,14 @@
       <c r="EE131" s="2" t="s">
         <v>1080</v>
       </c>
+      <c r="EF131">
+        <v>1</v>
+      </c>
+      <c r="EG131" t="s">
+        <v>2061</v>
+      </c>
     </row>
-    <row r="132" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>201609170004</v>
       </c>
@@ -35719,8 +35941,11 @@
       <c r="ED132">
         <v>-9</v>
       </c>
+      <c r="EF132">
+        <v>1</v>
+      </c>
     </row>
-    <row r="133" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>201609180001</v>
       </c>
@@ -35943,8 +36168,14 @@
       <c r="EE133" s="2" t="s">
         <v>1080</v>
       </c>
+      <c r="EF133">
+        <v>1</v>
+      </c>
+      <c r="EG133" t="s">
+        <v>2061</v>
+      </c>
     </row>
-    <row r="134" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>201609240025</v>
       </c>
@@ -36153,8 +36384,11 @@
       <c r="ED134">
         <v>-9</v>
       </c>
+      <c r="EF134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>201610030040</v>
       </c>
@@ -36369,8 +36603,14 @@
       <c r="EE135" s="2" t="s">
         <v>1118</v>
       </c>
+      <c r="EF135">
+        <v>0</v>
+      </c>
+      <c r="EG135" t="s">
+        <v>2062</v>
+      </c>
     </row>
-    <row r="136" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>201610030060</v>
       </c>
@@ -36582,8 +36822,14 @@
       <c r="EE136" s="2" t="s">
         <v>1118</v>
       </c>
+      <c r="EF136">
+        <v>0</v>
+      </c>
+      <c r="EG136" t="s">
+        <v>2062</v>
+      </c>
     </row>
-    <row r="137" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>201610040058</v>
       </c>
@@ -36800,8 +37046,14 @@
       <c r="ED137">
         <v>-9</v>
       </c>
+      <c r="EF137">
+        <v>0</v>
+      </c>
+      <c r="EG137" t="s">
+        <v>2063</v>
+      </c>
     </row>
-    <row r="138" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>201610090043</v>
       </c>
@@ -37007,8 +37259,11 @@
       <c r="ED138">
         <v>-9</v>
       </c>
+      <c r="EF138">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>201610130052</v>
       </c>
@@ -37225,8 +37480,14 @@
       <c r="ED139">
         <v>-9</v>
       </c>
+      <c r="EF139">
+        <v>0</v>
+      </c>
+      <c r="EG139" t="s">
+        <v>2063</v>
+      </c>
     </row>
-    <row r="140" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>201610150013</v>
       </c>
@@ -37438,8 +37699,11 @@
       <c r="ED140">
         <v>-9</v>
       </c>
+      <c r="EF140">
+        <v>0</v>
+      </c>
     </row>
-    <row r="141" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>201610160022</v>
       </c>
@@ -37654,8 +37918,11 @@
       <c r="ED141">
         <v>-9</v>
       </c>
+      <c r="EF141">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>201611230062</v>
       </c>
@@ -37861,8 +38128,11 @@
       <c r="ED142">
         <v>-9</v>
       </c>
+      <c r="EF142">
+        <v>0</v>
+      </c>
     </row>
-    <row r="143" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>201611250026</v>
       </c>
@@ -38065,8 +38335,11 @@
       <c r="ED143">
         <v>-9</v>
       </c>
+      <c r="EF143">
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>201611280001</v>
       </c>
@@ -38280,8 +38553,11 @@
       <c r="ED144">
         <v>-9</v>
       </c>
+      <c r="EF144">
+        <v>1</v>
+      </c>
     </row>
-    <row r="145" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>201612040047</v>
       </c>
@@ -38511,8 +38787,11 @@
       <c r="ED145">
         <v>-9</v>
       </c>
+      <c r="EF145">
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>201612080038</v>
       </c>
@@ -38715,8 +38994,11 @@
       <c r="ED146">
         <v>-9</v>
       </c>
+      <c r="EF146">
+        <v>0</v>
+      </c>
     </row>
-    <row r="147" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>201612150044</v>
       </c>
@@ -38915,8 +39197,11 @@
       <c r="ED147">
         <v>-9</v>
       </c>
+      <c r="EF147">
+        <v>0</v>
+      </c>
     </row>
-    <row r="148" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>200601170007</v>
       </c>
@@ -39128,7 +39413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>200603030013</v>
       </c>
@@ -39342,7 +39627,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="150" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>200606300004</v>
       </c>
@@ -39546,7 +39831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>200607120007</v>
       </c>
@@ -39745,7 +40030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>200607280004</v>
       </c>
@@ -39958,7 +40243,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="153" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>200609110007</v>
       </c>
@@ -40172,7 +40457,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="154" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>200703180002</v>
       </c>
@@ -40380,7 +40665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>200703200003</v>
       </c>
@@ -40602,7 +40887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>200703210007</v>
       </c>
@@ -40823,7 +41108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>200704250006</v>
       </c>
@@ -41025,7 +41310,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="158" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>200705090002</v>
       </c>
@@ -41241,7 +41526,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="159" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>200706240004</v>
       </c>
@@ -41460,7 +41745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>200710200003</v>
       </c>
